--- a/selectivity/data/Growth & Aopt.xlsx
+++ b/selectivity/data/Growth & Aopt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>NS cod</t>
   </si>
@@ -51,20 +51,44 @@
     <t>Froese et al. 2008</t>
   </si>
   <si>
-    <t>Gulf of Main</t>
-  </si>
-  <si>
     <t>George's Bank</t>
   </si>
   <si>
     <t>NOAA 2012</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Elvarsson pers. comm.</t>
+  </si>
+  <si>
+    <t>Tallest bar</t>
+  </si>
+  <si>
+    <t>8 and 9</t>
+  </si>
+  <si>
+    <t>6 (older ones missing)</t>
+  </si>
+  <si>
+    <t>8 (older ones missing)</t>
+  </si>
+  <si>
+    <t>Gulf of Maine</t>
+  </si>
+  <si>
+    <t>6 (7 is close second)</t>
+  </si>
+  <si>
+    <t>5-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +105,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,10 +138,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,18 +424,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -420,11 +455,14 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -443,11 +481,14 @@
       <c r="F2" s="2">
         <v>7.03</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -466,13 +507,16 @@
       <c r="F3" s="2">
         <v>7.55</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>150.93</v>
@@ -489,13 +533,16 @@
       <c r="F4" s="2">
         <v>10.119999999999999</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>91.63</v>
@@ -512,8 +559,37 @@
       <c r="F5" s="2">
         <v>4.24</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
+      </c>
+      <c r="B6">
+        <v>153.66999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.104</v>
+      </c>
+      <c r="D6">
+        <v>0.34</v>
+      </c>
+      <c r="E6">
+        <v>102.45</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
